--- a/WorkDocs/Git_commands.xlsx
+++ b/WorkDocs/Git_commands.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkalamshabaz\Documents\Personal\WorkDocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bf33caca2f8f99ea/Desktop/PersonalDetail_WorkDc/WorkDocs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7208F630-6949-4AF0-A822-10835D40F8B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7208F630-6949-4AF0-A822-10835D40F8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{177A0D0D-0EA9-4AF5-9F67-8714F52E0E72}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{177A0D0D-0EA9-4AF5-9F67-8714F52E0E72}"/>
   </bookViews>
   <sheets>
     <sheet name="GIT" sheetId="2" r:id="rId1"/>
@@ -562,16 +562,16 @@
   <dimension ref="A2:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -579,7 +579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -587,7 +587,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -595,7 +595,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -603,7 +603,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -611,7 +611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -619,7 +619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -627,7 +627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -635,7 +635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -643,7 +643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -651,7 +651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -659,7 +659,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -667,7 +667,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -675,7 +675,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -683,7 +683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -691,7 +691,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -699,7 +699,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -707,7 +707,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -715,7 +715,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -737,13 +737,13 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -751,7 +751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -759,7 +759,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -767,7 +767,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -775,7 +775,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -783,7 +783,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -791,7 +791,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -799,7 +799,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -807,7 +807,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -815,7 +815,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -823,7 +823,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>56</v>
       </c>

--- a/WorkDocs/Git_commands.xlsx
+++ b/WorkDocs/Git_commands.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{7208F630-6949-4AF0-A822-10835D40F8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{177A0D0D-0EA9-4AF5-9F67-8714F52E0E72}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{177A0D0D-0EA9-4AF5-9F67-8714F52E0E72}"/>
   </bookViews>
   <sheets>
     <sheet name="GIT" sheetId="2" r:id="rId1"/>
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF28E87-71D1-4CF9-B1CA-4A7024998EBF}">
   <dimension ref="A2:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87188E96-9DB2-44A4-A949-7380032B4AA4}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,12 +838,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1064,15 +1061,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{435956E4-7565-4B2B-944A-532FED8BE159}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{317B754E-7F42-4BED-BE52-FE037018C8A5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="48dbd888-5c87-4539-80a1-3566444312a8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="ae40ca3e-45af-444a-9c75-1d460496412f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1097,18 +1106,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{317B754E-7F42-4BED-BE52-FE037018C8A5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{435956E4-7565-4B2B-944A-532FED8BE159}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="48dbd888-5c87-4539-80a1-3566444312a8"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="ae40ca3e-45af-444a-9c75-1d460496412f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>